--- a/subnetting.xlsx
+++ b/subnetting.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robin.w.ford\IdeaProjects\robin.w.ford\blog-code\vpc101\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robin.w.ford\source\repos\myawsrocks\vpc101\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB87056-4A19-4105-B330-8DCDCD106782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0B8D60-17BF-4653-9E9C-C007CCB687AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{908D6BE3-B92B-459F-98DA-C9F61221A7DC}"/>
+    <workbookView xWindow="14050" yWindow="3690" windowWidth="19180" windowHeight="10780" xr2:uid="{908D6BE3-B92B-459F-98DA-C9F61221A7DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
   <si>
     <t>IPv6</t>
   </si>
@@ -87,18 +87,6 @@
     <t>172.15.3.0/25</t>
   </si>
   <si>
-    <t>10.10.0.0/22</t>
-  </si>
-  <si>
-    <t>10.10.0.0/24</t>
-  </si>
-  <si>
-    <t>10.10.1.0/24</t>
-  </si>
-  <si>
-    <t>10.10.2.0/24</t>
-  </si>
-  <si>
     <t>Layer CIDR</t>
   </si>
   <si>
@@ -108,9 +96,6 @@
     <t>Spare ranges</t>
   </si>
   <si>
-    <t>10.10.3.0/24</t>
-  </si>
-  <si>
     <t>172.15.0.0/23</t>
   </si>
   <si>
@@ -193,6 +178,21 @@
   </si>
   <si>
     <t>AZ3</t>
+  </si>
+  <si>
+    <t>100.64.0.0/22</t>
+  </si>
+  <si>
+    <t>100.64.0.0/24</t>
+  </si>
+  <si>
+    <t>100.64.1.0/24</t>
+  </si>
+  <si>
+    <t>100.64.2.0/24</t>
+  </si>
+  <si>
+    <t>100.64.3.0/24</t>
   </si>
 </sst>
 </file>
@@ -270,9 +270,6 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -280,6 +277,9 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC50DBF-1165-4BB4-9B8F-18D9042F1705}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -615,7 +615,7 @@
     <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -623,41 +623,25 @@
         <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>1</v>
@@ -665,178 +649,258 @@
       <c r="D6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B12" s="1"/>
+      <c r="C12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="1" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19" s="1"/>
+      <c r="C19" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="1" t="s">
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B26" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B31" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="5" t="s">
+      <c r="D31" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" s="7" t="s">
+      <c r="E31" s="8" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/subnetting.xlsx
+++ b/subnetting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robin.w.ford\source\repos\myawsrocks\vpc101\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robin\IdeaProjects\AWS\GITHUB\myawsrocks\vpc101\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0B8D60-17BF-4653-9E9C-C007CCB687AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B936A126-8BAF-4306-B7EB-CCD79BAC59B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14050" yWindow="3690" windowWidth="19180" windowHeight="10780" xr2:uid="{908D6BE3-B92B-459F-98DA-C9F61221A7DC}"/>
+    <workbookView xWindow="2240" yWindow="4320" windowWidth="28800" windowHeight="15390" xr2:uid="{908D6BE3-B92B-459F-98DA-C9F61221A7DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="55">
   <si>
     <t>IPv6</t>
   </si>
@@ -57,123 +57,27 @@
     <t>AZ1</t>
   </si>
   <si>
-    <t>172.15.0.0/25</t>
-  </si>
-  <si>
-    <t>172.15.0.128/25</t>
-  </si>
-  <si>
-    <t>172.15.4.0/24</t>
-  </si>
-  <si>
-    <t>172.15.5.0/24</t>
-  </si>
-  <si>
-    <t>172.15.2.0/25</t>
-  </si>
-  <si>
-    <t>172.15.2.128/25</t>
-  </si>
-  <si>
-    <t>172.15.0.0/21</t>
-  </si>
-  <si>
-    <t>172.15.6.0/24</t>
-  </si>
-  <si>
-    <t>172.15.1.0/25</t>
-  </si>
-  <si>
-    <t>172.15.3.0/25</t>
-  </si>
-  <si>
     <t>Layer CIDR</t>
   </si>
   <si>
-    <t>172.15.4.0/22</t>
-  </si>
-  <si>
     <t>Spare ranges</t>
   </si>
   <si>
-    <t>172.15.0.0/23</t>
-  </si>
-  <si>
-    <t>172.15.2.0/23</t>
-  </si>
-  <si>
-    <t>172.15.1.128/25</t>
-  </si>
-  <si>
-    <t>172.15.3.128/25</t>
-  </si>
-  <si>
-    <t>172.15.7.0/24</t>
-  </si>
-  <si>
     <t>fc00:1234:5678:9a::/56</t>
   </si>
   <si>
-    <t>fc00:1234:5678:9a00::/64</t>
-  </si>
-  <si>
-    <t>fc00:1234:5678:9a01::/64</t>
-  </si>
-  <si>
-    <t>fc00:1234:5678:9a02::/64</t>
-  </si>
-  <si>
     <t>03-3f</t>
   </si>
   <si>
-    <t>fc00:1234:5678:9a00::/58</t>
-  </si>
-  <si>
-    <t>fc00:1234:5678:9a40::/58</t>
-  </si>
-  <si>
     <t>43-7f</t>
   </si>
   <si>
-    <t>fc00:1234:5678:9a80::/58</t>
-  </si>
-  <si>
     <t>83-bf</t>
   </si>
   <si>
-    <t>fc00:1234:5678:9ac0::/58</t>
-  </si>
-  <si>
     <t>c3-ff</t>
   </si>
   <si>
-    <t>fc00:1234:5678:9a40::/64</t>
-  </si>
-  <si>
-    <t>fc00:1234:5678:9a80::/64</t>
-  </si>
-  <si>
-    <t>fc00:1234:5678:9ac0::/64</t>
-  </si>
-  <si>
-    <t>fc00:1234:5678:9ac1::/64</t>
-  </si>
-  <si>
-    <t>fc00:1234:5678:9a41::/64</t>
-  </si>
-  <si>
-    <t>fc00:1234:5678:9a42::/64</t>
-  </si>
-  <si>
-    <t>fc00:1234:5678:9a82::/64</t>
-  </si>
-  <si>
-    <t>fc00:1234:5678:9ac2::/64</t>
-  </si>
-  <si>
-    <t>fc00:1234:5678:9a81::/64</t>
-  </si>
-  <si>
     <t>AZ2</t>
   </si>
   <si>
@@ -193,13 +97,483 @@
   </si>
   <si>
     <t>100.64.3.0/24</t>
+  </si>
+  <si>
+    <r>
+      <t>fc00:1234:5678:9a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>::/64</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>fc00:1234:5678:9a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>::/64</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>fc00:1234:5678:9a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>::/64</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>fc00:1234:5678:9a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>::/64</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>fc00:1234:5678:9a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>::/64</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>fc00:1234:5678:9a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>::/64</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>fc00:1234:5678:9a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>41</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>::/64</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>fc00:1234:5678:9a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>81</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>::/64</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>fc00:1234:5678:9a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>::/64</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>fc00:1234:5678:9a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>::/64</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>fc00:1234:5678:9a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>42</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>::/64</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>fc00:1234:5678:9a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>82</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>::/64</t>
+    </r>
+  </si>
+  <si>
+    <t>172.16.0.0/25</t>
+  </si>
+  <si>
+    <t>172.16.4.0/24</t>
+  </si>
+  <si>
+    <t>172.16.2.0/25</t>
+  </si>
+  <si>
+    <t>172.16.0.128/25</t>
+  </si>
+  <si>
+    <t>172.16.5.0/24</t>
+  </si>
+  <si>
+    <t>172.16.2.128/25</t>
+  </si>
+  <si>
+    <t>172.16.1.0/25</t>
+  </si>
+  <si>
+    <t>172.16.6.0/24</t>
+  </si>
+  <si>
+    <t>172.16.3.0/25</t>
+  </si>
+  <si>
+    <t>172.16.0.0/23</t>
+  </si>
+  <si>
+    <t>172.16.1.128/25</t>
+  </si>
+  <si>
+    <t>172.16.4.0/22</t>
+  </si>
+  <si>
+    <t>172.16.7.0/24</t>
+  </si>
+  <si>
+    <t>172.16.2.0/23</t>
+  </si>
+  <si>
+    <t>172.16.3.128/25</t>
+  </si>
+  <si>
+    <t>172.16.0.0/20</t>
+  </si>
+  <si>
+    <t>Layer Summary</t>
+  </si>
+  <si>
+    <r>
+      <t>fc00:1234:5678:9a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>::/58</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>fc00:1234:5678:9a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>::/58</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>fc00:1234:5678:9a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>::/58</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>fc00:1234:5678:9a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>::/58</t>
+    </r>
+  </si>
+  <si>
+    <t>VPC CIDR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,8 +581,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,8 +635,31 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -249,39 +668,324 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="20% - Accent4" xfId="2" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="3" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="4" builtinId="44"/>
+    <cellStyle name="Accent4" xfId="1" builtinId="41"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -594,313 +1298,457 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC50DBF-1165-4BB4-9B8F-18D9042F1705}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="B1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="6.81640625" customWidth="1"/>
     <col min="2" max="2" width="22.7265625" customWidth="1"/>
-    <col min="3" max="3" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.26953125" customWidth="1"/>
+    <col min="4" max="6" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="15.6328125" customWidth="1"/>
+    <col min="11" max="11" width="3" customWidth="1"/>
     <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="22.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D2" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+    </row>
+    <row r="5" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="24"/>
+    </row>
+    <row r="6" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B7" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="24"/>
+    </row>
+    <row r="13" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C13" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B14" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C19" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C20" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B21" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="1"/>
-      <c r="C5" s="9" t="s">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="26" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C26" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="24"/>
+    </row>
+    <row r="27" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C27" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B28" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="33" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C33" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="D33" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="3" t="s">
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B34" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="4" t="s">
+      <c r="F34" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B35" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="38" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C38" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B39" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="C39" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="5" t="s">
+      <c r="E39" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B40" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="2" t="s">
+      <c r="C40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="1"/>
-      <c r="C12" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B19" s="1"/>
-      <c r="C19" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B22" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="C41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B26" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="9"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B28" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B29" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B30" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" s="7" t="s">
+      <c r="E41" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B31" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>34</v>
+      <c r="F41" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C26:D26"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C19:D19"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
